--- a/遊戲內部資料相關.xlsx
+++ b/遊戲內部資料相關.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="說明頁面" sheetId="11" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="技能代號" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Menber!$A$1:$IV$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Menber!$A$1:$IX$5</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="279">
   <si>
     <t>玩家編號</t>
   </si>
@@ -1220,6 +1220,25 @@
   </si>
   <si>
     <t>說明</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家密碼</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家帳號</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入時使用</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1728,7 +1747,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1876,7 +1895,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2123,7 +2142,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3662,7 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4362,86 +4381,94 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV15"/>
+  <dimension ref="A1:IX15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="12.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="12.19921875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.796875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="12.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="12.19921875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="14.296875" style="1" customWidth="1"/>
-    <col min="17" max="256" width="12.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.19921875" style="46" customWidth="1"/>
+    <col min="5" max="7" width="12.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="12.19921875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.796875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.19921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.796875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="12.19921875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="14.296875" style="1" customWidth="1"/>
+    <col min="19" max="258" width="12.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="32.65" customHeight="1">
+    <row r="1" spans="1:258" ht="32.65" customHeight="1">
       <c r="A1" s="51" t="s">
         <v>235</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="32.65" customHeight="1">
+    <row r="2" spans="1:258" ht="32.65" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4449,34 +4476,34 @@
         <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>232</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>230</v>
@@ -4490,8 +4517,12 @@
       <c r="R2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="S2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
@@ -4728,8 +4759,10 @@
       <c r="IT2" s="46"/>
       <c r="IU2" s="46"/>
       <c r="IV2" s="46"/>
-    </row>
-    <row r="3" spans="1:256" ht="32.65" customHeight="1">
+      <c r="IW2" s="46"/>
+      <c r="IX2" s="46"/>
+    </row>
+    <row r="3" spans="1:258" ht="32.65" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>228</v>
       </c>
@@ -4737,23 +4770,23 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
         <v>30</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="48"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>100</v>
-      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="2">
         <v>1</v>
       </c>
@@ -4761,13 +4794,17 @@
         <v>100</v>
       </c>
       <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>100</v>
+      </c>
+      <c r="S3" s="2">
         <v>20</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>30</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -5004,8 +5041,10 @@
       <c r="IT3" s="46"/>
       <c r="IU3" s="46"/>
       <c r="IV3" s="46"/>
-    </row>
-    <row r="4" spans="1:256" ht="20.65" customHeight="1">
+      <c r="IW3" s="46"/>
+      <c r="IX3" s="46"/>
+    </row>
+    <row r="4" spans="1:258" ht="20.65" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -5013,55 +5052,61 @@
         <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="H4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="I4" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="J4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="20.65" customHeight="1">
+    <row r="5" spans="1:258" ht="20.65" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>236</v>
       </c>
@@ -5071,11 +5116,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="48"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -5084,8 +5129,8 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
       <c r="U5" s="46"/>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
@@ -5322,72 +5367,80 @@
       <c r="IT5" s="46"/>
       <c r="IU5" s="46"/>
       <c r="IV5" s="46"/>
-    </row>
-    <row r="6" spans="1:256" ht="28.5">
+      <c r="IW5" s="46"/>
+      <c r="IX5" s="46"/>
+    </row>
+    <row r="6" spans="1:258" ht="28.5">
       <c r="A6" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>134000</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>260</v>
       </c>
       <c r="P6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="S6" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:256" ht="20.45" customHeight="1">
+    <row r="7" spans="1:258" ht="20.45" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>80</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -5396,18 +5449,20 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:256" ht="20.45" customHeight="1">
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:258" ht="20.45" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -5416,18 +5471,20 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:256" ht="20.45" customHeight="1">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:258" ht="20.45" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -5436,18 +5493,20 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:256" ht="20.45" customHeight="1">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:258" ht="20.45" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -5456,18 +5515,20 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:256" ht="20.45" customHeight="1">
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:258" ht="20.45" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -5476,18 +5537,20 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:256" ht="20.45" customHeight="1">
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:258" ht="20.45" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -5496,18 +5559,20 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:256" ht="20.45" customHeight="1">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:258" ht="20.45" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -5516,18 +5581,20 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:256" ht="20.45" customHeight="1">
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:258" ht="20.45" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -5536,25 +5603,27 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:256" ht="28.5">
-      <c r="F15" s="47" t="s">
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:258" ht="28.5">
+      <c r="H15" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="I15" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="J15" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
       <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
